--- a/Optimisation7.xlsx
+++ b/Optimisation7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/cmtmd_leeds_ac_uk/Documents/Research PhD project infomation/Written documents/Papers/Autonomous HPLC method development using optimisation algorithms/paper code/Python code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{0C3931FE-81CB-4514-84A8-9755B0272C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EE2725A-D5FD-4CE3-9E09-D6E64EA2B87E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{0C3931FE-81CB-4514-84A8-9755B0272C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D622D34-11D8-4E19-8EEF-23525201DD70}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
+    <workbookView xWindow="1332" yWindow="1128" windowWidth="17280" windowHeight="8904" xr2:uid="{BD664935-E066-43F8-A12F-C2FC597EFC43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>GradTime</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>WeightRespcmtmdHPLC018</t>
-  </si>
-  <si>
-    <t>Dist</t>
   </si>
   <si>
     <t>Dist2</t>
@@ -437,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8828E3-2CC5-4ED5-B33A-5674B3893062}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="Q81" sqref="A52:Q81"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,11 +491,8 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>9.76</v>
       </c>
@@ -545,13 +539,10 @@
         <v>-0.114362600691403</v>
       </c>
       <c r="P2">
-        <v>0.57998813294710205</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>5.43</v>
       </c>
@@ -598,13 +589,10 @@
         <v>-0.16235746007782201</v>
       </c>
       <c r="P3">
-        <v>0.69373121133202897</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>4.0999999999999996</v>
       </c>
@@ -651,13 +639,10 @@
         <v>-0.157698033732973</v>
       </c>
       <c r="P4">
-        <v>0.37734208582135098</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>6.19</v>
       </c>
@@ -704,13 +689,10 @@
         <v>1.5849769995558802E-2</v>
       </c>
       <c r="P5">
-        <v>0.82390270507961305</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>3.14</v>
       </c>
@@ -757,13 +739,10 @@
         <v>-0.14464475952283101</v>
       </c>
       <c r="P6">
-        <v>0.55077720286304499</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>8.18</v>
       </c>
@@ -810,13 +789,10 @@
         <v>-0.18731499001734001</v>
       </c>
       <c r="P7">
-        <v>0.66856863663608401</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1.8</v>
       </c>
@@ -863,13 +839,10 @@
         <v>-7.3182862048667002E-2</v>
       </c>
       <c r="P8">
-        <v>0.81335695811131603</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>9.3072307435003907</v>
       </c>
@@ -916,13 +889,10 @@
         <v>-0.23766898644575901</v>
       </c>
       <c r="P9">
-        <v>0.25532117200692001</v>
-      </c>
-      <c r="Q9">
-        <v>0.25532117200692001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.57328378959756898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9.5944467836169505</v>
       </c>
@@ -969,13 +939,10 @@
         <v>-0.259173725169563</v>
       </c>
       <c r="P10">
-        <v>8.5561594650522502E-2</v>
-      </c>
-      <c r="Q10">
-        <v>8.5561594650522502E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.17477369372457799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>7.2340140564882702</v>
       </c>
@@ -1022,13 +989,10 @@
         <v>-0.16488764551785501</v>
       </c>
       <c r="P11">
-        <v>0.35236662398739599</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1.8068718775978001</v>
       </c>
@@ -1075,13 +1039,10 @@
         <v>-0.12094897927074499</v>
       </c>
       <c r="P12">
-        <v>0.53626663778533401</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>9.8065020525335793</v>
       </c>
@@ -1128,13 +1089,10 @@
         <v>-0.21862011762830399</v>
       </c>
       <c r="P13">
-        <v>0.43709614905073102</v>
-      </c>
-      <c r="Q13">
-        <v>0.43709614905073102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>3.08962273928447</v>
       </c>
@@ -1181,13 +1139,10 @@
         <v>-2.83042031292354E-2</v>
       </c>
       <c r="P14">
-        <v>0.66268049445662203</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>8.0721727408196404</v>
       </c>
@@ -1234,13 +1189,10 @@
         <v>-0.23559753002542</v>
       </c>
       <c r="P15">
-        <v>0.22185930383355301</v>
-      </c>
-      <c r="Q15">
-        <v>0.22185930383355301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.49473215497690698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>9.4893598151032794</v>
       </c>
@@ -1287,13 +1239,10 @@
         <v>-0.14078120153603499</v>
       </c>
       <c r="P16">
-        <v>0.463490702391054</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>2.17419339976556</v>
       </c>
@@ -1340,13 +1289,10 @@
         <v>-0.110844847684044</v>
       </c>
       <c r="P17">
-        <v>0.65631934654332202</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>4.1721656112880101</v>
       </c>
@@ -1393,13 +1339,10 @@
         <v>-0.17678220376753601</v>
       </c>
       <c r="P18">
-        <v>0.34192056851707497</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>4.9298637434417598</v>
       </c>
@@ -1446,13 +1389,10 @@
         <v>-0.23073609510181001</v>
       </c>
       <c r="P19">
-        <v>6.7887793123504098E-2</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>9.8346698937647208</v>
       </c>
@@ -1499,13 +1439,10 @@
         <v>-0.24181912916554199</v>
       </c>
       <c r="P20">
-        <v>0.19595519780277601</v>
-      </c>
-      <c r="Q20">
-        <v>0.19595519780277601</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.43392234419282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>10</v>
       </c>
@@ -1552,13 +1489,10 @@
         <v>-0.22230627688874299</v>
       </c>
       <c r="P21">
-        <v>0.116947068724214</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>6.7899782394290202</v>
       </c>
@@ -1605,13 +1539,10 @@
         <v>-0.25647576487499102</v>
       </c>
       <c r="P22">
-        <v>1.2307062055192599E-2</v>
-      </c>
-      <c r="Q22">
-        <v>1.2307062055192599E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>2.8088993824690301E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>9.8498506007216005</v>
       </c>
@@ -1658,13 +1589,10 @@
         <v>-0.24707678277074299</v>
       </c>
       <c r="P23">
-        <v>0.18825341698525799</v>
-      </c>
-      <c r="Q23">
-        <v>0.18825341698525799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0.41584243695119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>6.4910935665232996</v>
       </c>
@@ -1711,13 +1639,10 @@
         <v>-0.25055203496578898</v>
       </c>
       <c r="P24">
-        <v>3.2638706141778197E-2</v>
-      </c>
-      <c r="Q24">
-        <v>3.2638706141778197E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>5.0537372558332801E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>8.0640637791298104</v>
       </c>
@@ -1764,13 +1689,10 @@
         <v>-0.26587689662341402</v>
       </c>
       <c r="P25">
-        <v>3.0872850799398398E-2</v>
-      </c>
-      <c r="Q25">
-        <v>3.0872850799398398E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>4.6392032467669098E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>6.4395941805845203</v>
       </c>
@@ -1817,13 +1739,10 @@
         <v>-0.116658949903617</v>
       </c>
       <c r="P26">
-        <v>0.34206557879791699</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>7.1061858804485398</v>
       </c>
@@ -1870,13 +1789,10 @@
         <v>-0.22996720565883999</v>
       </c>
       <c r="P27">
-        <v>0.15829338958088399</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>5.8685881632637704</v>
       </c>
@@ -1923,13 +1839,10 @@
         <v>-0.234584744191774</v>
       </c>
       <c r="P28">
-        <v>5.4859877475359302E-2</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2.1423203973062899</v>
       </c>
@@ -1976,13 +1889,10 @@
         <v>-5.8111961414890799E-2</v>
       </c>
       <c r="P29">
-        <v>0.54032546419826</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2029,13 +1939,10 @@
         <v>1.1231266081998001E-2</v>
       </c>
       <c r="P30">
-        <v>0.84576191598109796</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>6.6601695309687603</v>
       </c>
@@ -2082,13 +1989,10 @@
         <v>-0.257041410336599</v>
       </c>
       <c r="P31">
-        <v>1.54886372795611E-2</v>
-      </c>
-      <c r="Q31">
-        <v>1.54886372795611E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1.0277637626488201E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2135,13 +2039,10 @@
         <v>-0.13756092288685901</v>
       </c>
       <c r="P32">
-        <v>0.51977093996881596</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>2.02967786147184</v>
       </c>
@@ -2188,13 +2089,10 @@
         <v>5.7214005014416799E-2</v>
       </c>
       <c r="P33">
-        <v>0.64808840346604801</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>5.1753210149920896</v>
       </c>
@@ -2241,13 +2139,10 @@
         <v>-0.120104116232504</v>
       </c>
       <c r="P34">
-        <v>0.58190753417149399</v>
-      </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>4.0373578594731301</v>
       </c>
@@ -2294,13 +2189,10 @@
         <v>-0.178336584307665</v>
       </c>
       <c r="P35">
-        <v>0.29102048742325898</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>4.5441482955922501</v>
       </c>
@@ -2347,13 +2239,10 @@
         <v>-0.210697011927787</v>
       </c>
       <c r="P36">
-        <v>0.14950086457365799</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>5.5236974982870501</v>
       </c>
@@ -2400,13 +2289,10 @@
         <v>-0.19788536399913501</v>
       </c>
       <c r="P37">
-        <v>0.20872899784961299</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>5.4046903975053704</v>
       </c>
@@ -2453,13 +2339,10 @@
         <v>-0.20132073884476001</v>
       </c>
       <c r="P38">
-        <v>0.38226638293988302</v>
-      </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>4.8847129540422101</v>
       </c>
@@ -2506,13 +2389,10 @@
         <v>-0.17222360454334601</v>
       </c>
       <c r="P39">
-        <v>0.36693813902592298</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>9.1152407395033492</v>
       </c>
@@ -2559,13 +2439,10 @@
         <v>-0.109686963837498</v>
       </c>
       <c r="P40">
-        <v>0.71860542678761097</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>5.7960043631619502</v>
       </c>
@@ -2612,13 +2489,10 @@
         <v>-0.22211469279360899</v>
       </c>
       <c r="P41">
-        <v>0.21128518129356999</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>7.4591711473418103</v>
       </c>
@@ -2665,13 +2539,10 @@
         <v>-0.26087384758267701</v>
       </c>
       <c r="P42">
-        <v>1.11105112602623E-2</v>
-      </c>
-      <c r="Q42">
-        <v>1.11105112602623E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>7.8556487779259498</v>
       </c>
@@ -2718,13 +2589,10 @@
         <v>-0.23372206290610401</v>
       </c>
       <c r="P43">
-        <v>0.135726104846389</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>3.5137639022922702</v>
       </c>
@@ -2771,13 +2639,10 @@
         <v>-0.12232443610237</v>
       </c>
       <c r="P44">
-        <v>0.57579455241268696</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>5.9729279788719198</v>
       </c>
@@ -2824,13 +2689,10 @@
         <v>-0.23022603430087901</v>
       </c>
       <c r="P45">
-        <v>7.2782810843153495E-2</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>4.9921607511025901</v>
       </c>
@@ -2877,13 +2739,10 @@
         <v>-0.13229789578139001</v>
       </c>
       <c r="P46">
-        <v>0.51707856376543504</v>
-      </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>1.1171837622238401</v>
       </c>
@@ -2930,13 +2789,10 @@
         <v>-0.12151469409198699</v>
       </c>
       <c r="P47">
-        <v>0.53310416808208605</v>
-      </c>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>7.2324446069414403</v>
       </c>
@@ -2983,13 +2839,10 @@
         <v>-0.236335567341391</v>
       </c>
       <c r="P48">
-        <v>8.0492143371405298E-2</v>
-      </c>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>5.1453377409402696</v>
       </c>
@@ -3036,13 +2889,10 @@
         <v>-9.9310720162566105E-2</v>
       </c>
       <c r="P49">
-        <v>0.45724342730135797</v>
-      </c>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>9.2980525450595799</v>
       </c>
@@ -3089,13 +2939,10 @@
         <v>-0.22942474628661799</v>
       </c>
       <c r="P50">
-        <v>0.23665760779858799</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>9.8329340959998603</v>
       </c>
@@ -3142,9 +2989,6 @@
         <v>-0.17093502558215401</v>
       </c>
       <c r="P51">
-        <v>0.38906230262678898</v>
-      </c>
-      <c r="Q51">
         <v>1</v>
       </c>
     </row>
